--- a/individual_results/avey/83.xlsx
+++ b/individual_results/avey/83.xlsx
@@ -507,37 +507,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -580,16 +580,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -599,31 +599,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0.1666666666666667</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.4</v>
       </c>
       <c r="M4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -633,31 +629,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0.2380952380952381</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.625</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -667,16 +659,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4961847106691249</v>
+        <v>0.41311732856428</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3652457712878007</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3726262671130988</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -694,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1375554841440053</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5741414090136012</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2015151419005024</v>
+        <v>0.52129602861432</v>
       </c>
     </row>
     <row r="7">
@@ -719,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -765,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -795,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -811,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -841,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -854,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -865,12 +857,14 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -879,43 +873,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
